--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_PcaGroupProfile_DetailsPage.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_PcaGroupProfile_DetailsPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1658FE-152D-403D-8CAA-E42F754BE10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2188B3B6-017D-4CA6-A028-1EC4A4A44FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="4200" windowWidth="14400" windowHeight="7360" xr2:uid="{9005A130-DB4E-48B4-8613-6A06D3AE5785}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9005A130-DB4E-48B4-8613-6A06D3AE5785}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -82,27 +82,12 @@
     <t>jsClick</t>
   </si>
   <si>
-    <t>button_saveDetails_cf</t>
-  </si>
-  <si>
-    <t>link_pcaGroupProfile_wait_pca</t>
-  </si>
-  <si>
     <t>txt_pcaGroup_pca</t>
   </si>
   <si>
-    <t>txt_title_pca</t>
-  </si>
-  <si>
     <t>dropdown_agency_details_pca</t>
   </si>
   <si>
-    <t>txt_endDate_pca</t>
-  </si>
-  <si>
-    <t>button_setStatus_pca</t>
-  </si>
-  <si>
     <t>getData=SetStatus</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>Adarsh</t>
   </si>
   <si>
-    <t>J02</t>
-  </si>
-  <si>
     <t>Offset1</t>
   </si>
   <si>
@@ -143,6 +125,24 @@
   </si>
   <si>
     <t>SetStatus</t>
+  </si>
+  <si>
+    <t>link_pcaGroupProfile_wait</t>
+  </si>
+  <si>
+    <t>txt_title</t>
+  </si>
+  <si>
+    <t>txt_endDate</t>
+  </si>
+  <si>
+    <t>button_setStatus</t>
+  </si>
+  <si>
+    <t>button_saveDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 - J02 </t>
   </si>
 </sst>
 </file>
@@ -591,14 +591,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7908BCD2-227C-44D5-BFDD-3C1E61FB2E24}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
     <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -630,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -644,10 +644,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -658,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -672,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -686,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -700,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB0F954-B072-402F-ACD8-29BAEE533CC4}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,28 +805,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -834,19 +834,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7">
         <v>52525</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="7"/>
